--- a/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
+++ b/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PLCCommunicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{984DE45B-7FF5-49BD-BB1F-49527F82C4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D8BA1-3FB4-451D-BD0E-CEAF9BDA755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="下發上傳" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>订单号</t>
-  </si>
-  <si>
-    <t>D1000~D1009</t>
   </si>
   <si>
     <t>string[20]</t>
@@ -119,9 +116,6 @@
   </si>
   <si>
     <t>第一个大小板径向公差上限</t>
-  </si>
-  <si>
-    <t>D1048</t>
   </si>
   <si>
     <t>第一个大小板纬向公差下限</t>
@@ -488,9 +482,6 @@
     <t>CCD發送檢測結果</t>
   </si>
   <si>
-    <t>D1356</t>
-  </si>
-  <si>
     <t>CCD發送200, PLC發送接收完成時清除 200</t>
   </si>
   <si>
@@ -763,10 +754,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>FIELD_CCD_MES_DATA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>FIELD_CCD_RESULT</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -796,6 +783,22 @@
   </si>
   <si>
     <t>FIELD_SIZE_G14</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_CCD_COMMAND_RECEIVED</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1356</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1048</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1000~D1009</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1365,15 +1368,15 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="63.140625" customWidth="1"/>
-    <col min="4" max="4" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="65.5703125" customWidth="1"/>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1432,16 +1435,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>9</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -1470,16 +1473,16 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="5"/>
@@ -1509,16 +1512,16 @@
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="5"/>
@@ -1548,16 +1551,16 @@
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="5"/>
@@ -1587,16 +1590,16 @@
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="5"/>
@@ -1626,16 +1629,16 @@
       </c>
       <c r="B7" s="23"/>
       <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="5"/>
@@ -1665,16 +1668,16 @@
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="5"/>
@@ -1704,16 +1707,16 @@
       </c>
       <c r="B9" s="23"/>
       <c r="C9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="5"/>
@@ -1743,16 +1746,16 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="5"/>
@@ -1782,16 +1785,16 @@
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
@@ -1821,16 +1824,16 @@
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="5"/>
@@ -1860,16 +1863,16 @@
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="5"/>
@@ -1899,16 +1902,16 @@
       </c>
       <c r="B14" s="23"/>
       <c r="C14" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="5"/>
@@ -1938,16 +1941,16 @@
       </c>
       <c r="B15" s="23"/>
       <c r="C15" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="5"/>
@@ -1977,16 +1980,16 @@
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="5"/>
@@ -2016,16 +2019,16 @@
       </c>
       <c r="B17" s="23"/>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="5"/>
@@ -2055,16 +2058,16 @@
       </c>
       <c r="B18" s="23"/>
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="5"/>
@@ -2094,16 +2097,16 @@
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="5"/>
@@ -2133,16 +2136,16 @@
       </c>
       <c r="B20" s="23"/>
       <c r="C20" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="5"/>
@@ -2172,16 +2175,16 @@
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="5"/>
@@ -2211,16 +2214,16 @@
       </c>
       <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="5"/>
@@ -2250,16 +2253,16 @@
       </c>
       <c r="B23" s="23"/>
       <c r="C23" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="5"/>
@@ -2289,16 +2292,16 @@
       </c>
       <c r="B24" s="23"/>
       <c r="C24" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="5"/>
@@ -2328,16 +2331,16 @@
       </c>
       <c r="B25" s="23"/>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="5"/>
@@ -2367,16 +2370,16 @@
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="5"/>
@@ -2406,16 +2409,16 @@
       </c>
       <c r="B27" s="23"/>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="5"/>
@@ -2445,16 +2448,16 @@
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="5"/>
@@ -2484,16 +2487,16 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="5"/>
@@ -2523,16 +2526,16 @@
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="5"/>
@@ -2561,22 +2564,22 @@
         <v>34</v>
       </c>
       <c r="B31" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="F31" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G31" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
@@ -2605,22 +2608,22 @@
       </c>
       <c r="B32" s="23"/>
       <c r="C32" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="H32" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -2648,16 +2651,16 @@
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="5"/>
@@ -2687,16 +2690,16 @@
       </c>
       <c r="B34" s="23"/>
       <c r="C34" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="5"/>
@@ -2726,16 +2729,16 @@
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="5"/>
@@ -2765,16 +2768,16 @@
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="5"/>
@@ -2804,16 +2807,16 @@
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="5"/>
@@ -2843,16 +2846,16 @@
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="5"/>
@@ -2882,16 +2885,16 @@
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="5"/>
@@ -2921,16 +2924,16 @@
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="5"/>
@@ -2960,16 +2963,16 @@
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="5"/>
@@ -2999,16 +3002,16 @@
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="5"/>
@@ -3038,16 +3041,16 @@
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G43" s="14"/>
       <c r="H43" s="5"/>
@@ -3077,16 +3080,16 @@
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G44" s="14"/>
       <c r="H44" s="5"/>
@@ -3116,16 +3119,16 @@
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="5"/>
@@ -3155,16 +3158,16 @@
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="5"/>
@@ -3194,16 +3197,16 @@
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D47" s="21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="5"/>
@@ -3233,19 +3236,19 @@
       </c>
       <c r="B48" s="23"/>
       <c r="C48" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3274,19 +3277,19 @@
       </c>
       <c r="B49" s="23"/>
       <c r="C49" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3315,19 +3318,19 @@
       </c>
       <c r="B50" s="23"/>
       <c r="C50" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3356,16 +3359,16 @@
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="5"/>
@@ -3395,16 +3398,16 @@
       </c>
       <c r="B52" s="23"/>
       <c r="C52" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="5"/>
@@ -3434,16 +3437,16 @@
       </c>
       <c r="B53" s="23"/>
       <c r="C53" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G53" s="13"/>
       <c r="H53" s="5"/>
@@ -3473,19 +3476,19 @@
       </c>
       <c r="B54" s="23"/>
       <c r="C54" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3514,16 +3517,16 @@
       </c>
       <c r="B55" s="23"/>
       <c r="C55" s="17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G55" s="18"/>
       <c r="H55" s="5"/>
@@ -3553,16 +3556,16 @@
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D56" s="20" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E56" s="20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G56" s="20"/>
       <c r="H56" s="5"/>
@@ -3592,19 +3595,19 @@
       </c>
       <c r="B57" s="23"/>
       <c r="C57" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3633,19 +3636,19 @@
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3673,23 +3676,23 @@
         <v>67</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="5" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -3717,16 +3720,16 @@
       </c>
       <c r="B60" s="23"/>
       <c r="C60" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="5"/>
@@ -3756,16 +3759,16 @@
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="5"/>

--- a/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
+++ b/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PLCCommunicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D8BA1-3FB4-451D-BD0E-CEAF9BDA755F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A0BC8-8745-4A7F-BE28-D1A88581C828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5085" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="下發上傳" sheetId="1" r:id="rId1"/>
@@ -257,9 +257,6 @@
     <t>D1068~D1299保留欄位</t>
   </si>
   <si>
-    <t>板实际长度1</t>
-  </si>
-  <si>
     <t>D1300~D1301</t>
   </si>
   <si>
@@ -281,43 +278,22 @@
     <t>D1306~D1307</t>
   </si>
   <si>
-    <t>板长度实际公差1</t>
-  </si>
-  <si>
     <t>D1308~D1309</t>
-  </si>
-  <si>
-    <t>板长度实际公差2</t>
   </si>
   <si>
     <t>D1310~D1311</t>
   </si>
   <si>
-    <t>板宽度实际公差1</t>
-  </si>
-  <si>
     <t>D1312~D1313</t>
-  </si>
-  <si>
-    <t>板宽度实际公差2</t>
   </si>
   <si>
     <t>D1314~D1315</t>
   </si>
   <si>
-    <t>板对角线实际公差1</t>
-  </si>
-  <si>
     <t>D1316~D1317</t>
   </si>
   <si>
-    <t>板对角线实际公差2</t>
-  </si>
-  <si>
     <t>D1318~D1319</t>
-  </si>
-  <si>
-    <t>表观正面判断级别(1=OK,2=NG)</t>
   </si>
   <si>
     <t>D1320</t>
@@ -329,148 +305,13 @@
     <t>D1336</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大小板尺寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">判断级别OK =1    NG =2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">一開一 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一個板</t>
-    </r>
-  </si>
-  <si>
     <t>D1352</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大小板尺寸</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">判断级别OK =1    NG =2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 一開二 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="新細明體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve"> 兩個板</t>
-    </r>
   </si>
   <si>
     <t>D1353</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大小板尺寸判断级别</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">OK =1    NG =2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一開三</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>三個板</t>
-    </r>
-  </si>
-  <si>
     <t>D1354</t>
-  </si>
-  <si>
-    <t>CCD接收 MES  資料完成</t>
   </si>
   <si>
     <t>D1355</t>
@@ -479,22 +320,13 @@
     <t>發送 100 給PLC, PLC接收後自行清除 100</t>
   </si>
   <si>
-    <t>CCD發送檢測結果</t>
-  </si>
-  <si>
     <t>CCD發送200, PLC發送接收完成時清除 200</t>
-  </si>
-  <si>
-    <t>CCD接收PLC接收檢測結果完成</t>
   </si>
   <si>
     <t>D1357</t>
   </si>
   <si>
     <t>CCD接收300  ，接收後清除300</t>
-  </si>
-  <si>
-    <t>板OK数量</t>
   </si>
   <si>
     <t>D1359</t>
@@ -691,9 +523,6 @@
     <t>FIELD_REAL_X_TWO</t>
   </si>
   <si>
-    <t>FIELD_REAL_DIFF_ONE_Y</t>
-  </si>
-  <si>
     <t>FIELD_REAL_DIFF_TWO_Y</t>
   </si>
   <si>
@@ -723,10 +552,6 @@
   </si>
   <si>
     <t>FIELD_MATERIAL_1</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIELD_BATCH_MESSAGE</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -801,12 +626,203 @@
     <t>D1000~D1009</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>FIELD_REAL_DIFF_ONE_Y</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板OK数量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>表观正面判断级别(1=OK,2=NG)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大小板尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">判断级别OK =1    NG =2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">一開一 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一個板</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大小板尺寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">判断级别OK =1    NG =2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 一開二 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 兩個板</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大小板尺寸判断级别</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">OK =1    NG =2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>一開三</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>三個板</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板实际长度1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板长度实际公差1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板长度实际公差2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板宽度实际公差1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板宽度实际公差2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板对角线实际公差1</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>板对角线实际公差2</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD接收 MES 資料完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD發送檢測結果</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD接收PLC接收檢測結果完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_BATCH_MES</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -901,8 +917,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -961,6 +984,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF6AA84F"/>
         <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFFD966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor rgb="FFFF9999"/>
       </patternFill>
     </fill>
   </fills>
@@ -1072,7 +1107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1119,9 +1154,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1147,6 +1179,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,8 +1412,8 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1392,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1428,17 +1472,17 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -1471,12 +1515,12 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>10</v>
@@ -1510,12 +1554,12 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1549,12 +1593,12 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -1588,12 +1632,12 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="22"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>16</v>
@@ -1627,12 +1671,12 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
@@ -1666,12 +1710,12 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -1705,12 +1749,12 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>23</v>
@@ -1744,12 +1788,12 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>25</v>
@@ -1783,12 +1827,12 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>27</v>
@@ -1822,12 +1866,12 @@
       <c r="A12" s="6">
         <v>14</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>29</v>
@@ -1861,12 +1905,12 @@
       <c r="A13" s="6">
         <v>15</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="7" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
@@ -1900,15 +1944,15 @@
       <c r="A14" s="6">
         <v>16</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -1939,12 +1983,12 @@
       <c r="A15" s="6">
         <v>17</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>33</v>
@@ -1978,12 +2022,12 @@
       <c r="A16" s="6">
         <v>18</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>35</v>
@@ -2017,12 +2061,12 @@
       <c r="A17" s="6">
         <v>19</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>
@@ -2056,12 +2100,12 @@
       <c r="A18" s="6">
         <v>20</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>39</v>
@@ -2095,12 +2139,12 @@
       <c r="A19" s="6">
         <v>21</v>
       </c>
-      <c r="B19" s="23"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>41</v>
@@ -2134,12 +2178,12 @@
       <c r="A20" s="6">
         <v>22</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>43</v>
@@ -2173,12 +2217,12 @@
       <c r="A21" s="6">
         <v>23</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -2212,12 +2256,12 @@
       <c r="A22" s="6">
         <v>24</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>47</v>
@@ -2251,12 +2295,12 @@
       <c r="A23" s="6">
         <v>25</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2290,12 +2334,12 @@
       <c r="A24" s="6">
         <v>26</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>51</v>
@@ -2329,12 +2373,12 @@
       <c r="A25" s="6">
         <v>27</v>
       </c>
-      <c r="B25" s="23"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>53</v>
@@ -2368,12 +2412,12 @@
       <c r="A26" s="6">
         <v>28</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>55</v>
@@ -2407,12 +2451,12 @@
       <c r="A27" s="6">
         <v>29</v>
       </c>
-      <c r="B27" s="23"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>57</v>
@@ -2446,12 +2490,12 @@
       <c r="A28" s="6">
         <v>30</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>59</v>
@@ -2485,12 +2529,12 @@
       <c r="A29" s="6">
         <v>31</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>61</v>
@@ -2524,12 +2568,12 @@
       <c r="A30" s="6">
         <v>32</v>
       </c>
-      <c r="B30" s="24"/>
+      <c r="B30" s="23"/>
       <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>63</v>
@@ -2563,14 +2607,14 @@
       <c r="A31" s="6">
         <v>34</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B31" s="24" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>166</v>
+      <c r="D31" s="26" t="s">
+        <v>151</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>66</v>
@@ -2606,12 +2650,12 @@
       <c r="A32" s="6">
         <v>35</v>
       </c>
-      <c r="B32" s="23"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>69</v>
@@ -2649,15 +2693,15 @@
       <c r="A33" s="6">
         <v>36</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="22"/>
+      <c r="C33" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>17</v>
@@ -2688,15 +2732,15 @@
       <c r="A34" s="6">
         <v>37</v>
       </c>
-      <c r="B34" s="23"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>17</v>
@@ -2727,15 +2771,15 @@
       <c r="A35" s="6">
         <v>38</v>
       </c>
-      <c r="B35" s="23"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>17</v>
@@ -2766,15 +2810,15 @@
       <c r="A36" s="6">
         <v>39</v>
       </c>
-      <c r="B36" s="23"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>17</v>
@@ -2805,15 +2849,15 @@
       <c r="A37" s="6">
         <v>40</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>172</v>
+      <c r="B37" s="22"/>
+      <c r="C37" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>17</v>
@@ -2844,15 +2888,15 @@
       <c r="A38" s="6">
         <v>41</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="8" t="s">
-        <v>82</v>
+      <c r="B38" s="22"/>
+      <c r="C38" s="7" t="s">
+        <v>193</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>17</v>
@@ -2883,15 +2927,15 @@
       <c r="A39" s="6">
         <v>42</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="8" t="s">
-        <v>84</v>
+      <c r="B39" s="22"/>
+      <c r="C39" s="7" t="s">
+        <v>194</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>17</v>
@@ -2922,15 +2966,15 @@
       <c r="A40" s="6">
         <v>43</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="8" t="s">
-        <v>86</v>
+      <c r="B40" s="22"/>
+      <c r="C40" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>17</v>
@@ -2961,15 +3005,15 @@
       <c r="A41" s="6">
         <v>44</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="8" t="s">
-        <v>88</v>
+      <c r="B41" s="22"/>
+      <c r="C41" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>17</v>
@@ -3000,15 +3044,15 @@
       <c r="A42" s="6">
         <v>45</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="8" t="s">
-        <v>90</v>
+      <c r="B42" s="22"/>
+      <c r="C42" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>17</v>
@@ -3039,15 +3083,15 @@
       <c r="A43" s="6">
         <v>46</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="13" t="s">
-        <v>92</v>
+      <c r="B43" s="22"/>
+      <c r="C43" s="14" t="s">
+        <v>187</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>12</v>
@@ -3078,15 +3122,15 @@
       <c r="A44" s="6">
         <v>48</v>
       </c>
-      <c r="B44" s="23"/>
+      <c r="B44" s="22"/>
       <c r="C44" s="13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>12</v>
@@ -3117,15 +3161,15 @@
       <c r="A45" s="6">
         <v>50</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="15" t="s">
-        <v>96</v>
+      <c r="B45" s="22"/>
+      <c r="C45" s="28" t="s">
+        <v>188</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>12</v>
@@ -3156,15 +3200,15 @@
       <c r="A46" s="6">
         <v>51</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="15" t="s">
-        <v>98</v>
+      <c r="B46" s="22"/>
+      <c r="C46" s="28" t="s">
+        <v>189</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>12</v>
@@ -3191,19 +3235,19 @@
       <c r="Z46" s="5"/>
       <c r="AA46" s="5"/>
     </row>
-    <row r="47" spans="1:27" ht="15.75" customHeight="1">
+    <row r="47" spans="1:27" ht="59.25" customHeight="1">
       <c r="A47" s="6">
         <v>52</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>197</v>
+      <c r="B47" s="22"/>
+      <c r="C47" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>180</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>12</v>
@@ -3234,21 +3278,21 @@
       <c r="A48" s="6">
         <v>53</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="7" t="s">
         <v>198</v>
       </c>
+      <c r="D48" s="27" t="s">
+        <v>181</v>
+      </c>
       <c r="E48" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3275,21 +3319,21 @@
       <c r="A49" s="6">
         <v>54</v>
       </c>
-      <c r="B49" s="23"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>190</v>
+        <v>199</v>
+      </c>
+      <c r="D49" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3316,21 +3360,21 @@
       <c r="A50" s="6">
         <v>55</v>
       </c>
-      <c r="B50" s="23"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3357,15 +3401,15 @@
       <c r="A51" s="6">
         <v>57</v>
       </c>
-      <c r="B51" s="23"/>
+      <c r="B51" s="22"/>
       <c r="C51" s="7" t="s">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>12</v>
@@ -3396,15 +3440,15 @@
       <c r="A52" s="6">
         <v>58</v>
       </c>
-      <c r="B52" s="23"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="7" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>12</v>
@@ -3435,15 +3479,15 @@
       <c r="A53" s="6">
         <v>60</v>
       </c>
-      <c r="B53" s="23"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="7" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>17</v>
@@ -3474,21 +3518,21 @@
       <c r="A54" s="6">
         <v>62</v>
       </c>
-      <c r="B54" s="23"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="7" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3515,20 +3559,20 @@
       <c r="A55" s="6">
         <v>63</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="18"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="17"/>
       <c r="H55" s="5"/>
       <c r="I55" s="5"/>
       <c r="J55" s="5"/>
@@ -3554,20 +3598,20 @@
       <c r="A56" s="6">
         <v>64</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="G56" s="20"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G56" s="19"/>
       <c r="H56" s="5"/>
       <c r="I56" s="5"/>
       <c r="J56" s="5"/>
@@ -3593,21 +3637,21 @@
       <c r="A57" s="6">
         <v>65</v>
       </c>
-      <c r="B57" s="23"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="7" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3634,21 +3678,21 @@
       <c r="A58" s="6">
         <v>66</v>
       </c>
-      <c r="B58" s="24"/>
+      <c r="B58" s="23"/>
       <c r="C58" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3675,24 +3719,24 @@
       <c r="A59" s="6">
         <v>67</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>130</v>
+      <c r="B59" s="25" t="s">
+        <v>115</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="5" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -3718,15 +3762,15 @@
       <c r="A60" s="6">
         <v>68</v>
       </c>
-      <c r="B60" s="23"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>7</v>
@@ -3757,15 +3801,15 @@
       <c r="A61" s="6">
         <v>69</v>
       </c>
-      <c r="B61" s="24"/>
+      <c r="B61" s="23"/>
       <c r="C61" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>7</v>

--- a/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
+++ b/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PLCCommunicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A0BC8-8745-4A7F-BE28-D1A88581C828}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0B06C-3A3E-471D-B27C-657F56990AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5085" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="下發上傳" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="206">
   <si>
     <t>序号</t>
   </si>
@@ -571,14 +571,6 @@
     <t>FIELD_END_TIME</t>
   </si>
   <si>
-    <t>FIELD_RESULT_OK</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>FIELD_RESULT_NG</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>FIELD_CCD_RESULT</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -817,12 +809,34 @@
     <t>FIELD_BATCH_MES</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>wNum_A</t>
+  </si>
+  <si>
+    <t>wNum_P</t>
+  </si>
+  <si>
+    <t>FIELD_RESULT_OKNum</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_RESULT_NGNum</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_RESULT_P</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIELD_RESULT_A</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -923,6 +937,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1107,7 +1127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1191,6 +1211,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1412,8 +1435,8 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1424,7 +1447,9 @@
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="65.5703125" customWidth="1"/>
-    <col min="8" max="27" width="9.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="27" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="27" customHeight="1">
@@ -1482,7 +1507,7 @@
         <v>121</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -1517,7 +1542,7 @@
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>124</v>
@@ -1907,7 +1932,7 @@
       </c>
       <c r="B13" s="22"/>
       <c r="C13" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>133</v>
@@ -1952,7 +1977,7 @@
         <v>134</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -2695,7 +2720,7 @@
       </c>
       <c r="B33" s="22"/>
       <c r="C33" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>153</v>
@@ -2851,10 +2876,10 @@
       </c>
       <c r="B37" s="22"/>
       <c r="C37" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>79</v>
@@ -2890,7 +2915,7 @@
       </c>
       <c r="B38" s="22"/>
       <c r="C38" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>157</v>
@@ -2929,7 +2954,7 @@
       </c>
       <c r="B39" s="22"/>
       <c r="C39" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>158</v>
@@ -2968,7 +2993,7 @@
       </c>
       <c r="B40" s="22"/>
       <c r="C40" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>159</v>
@@ -3007,7 +3032,7 @@
       </c>
       <c r="B41" s="22"/>
       <c r="C41" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>160</v>
@@ -3046,7 +3071,7 @@
       </c>
       <c r="B42" s="22"/>
       <c r="C42" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>161</v>
@@ -3085,7 +3110,7 @@
       </c>
       <c r="B43" s="22"/>
       <c r="C43" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>162</v>
@@ -3163,10 +3188,10 @@
       </c>
       <c r="B45" s="22"/>
       <c r="C45" s="28" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>88</v>
@@ -3202,10 +3227,10 @@
       </c>
       <c r="B46" s="22"/>
       <c r="C46" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>89</v>
@@ -3241,10 +3266,10 @@
       </c>
       <c r="B47" s="22"/>
       <c r="C47" s="29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>90</v>
@@ -3280,10 +3305,10 @@
       </c>
       <c r="B48" s="22"/>
       <c r="C48" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>91</v>
@@ -3321,13 +3346,13 @@
       </c>
       <c r="B49" s="22"/>
       <c r="C49" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D49" s="26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>12</v>
@@ -3362,10 +3387,10 @@
       </c>
       <c r="B50" s="22"/>
       <c r="C50" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>94</v>
@@ -3403,10 +3428,10 @@
       </c>
       <c r="B51" s="22"/>
       <c r="C51" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>96</v>
@@ -3415,8 +3440,12 @@
         <v>12</v>
       </c>
       <c r="G51" s="7"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="H51" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="30" t="s">
+        <v>204</v>
+      </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -3445,7 +3474,7 @@
         <v>97</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>98</v>
@@ -3454,8 +3483,12 @@
         <v>12</v>
       </c>
       <c r="G52" s="7"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="H52" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I52" s="30" t="s">
+        <v>205</v>
+      </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -3523,7 +3556,7 @@
         <v>101</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>102</v>
@@ -3726,7 +3759,7 @@
         <v>6</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>116</v>

--- a/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
+++ b/PLCCommunicator/甬強-CCL下發_上傳PLC-Address.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\PLCCommunicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4A0B06C-3A3E-471D-B27C-657F56990AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B2FC18-C9AF-4769-9075-A1FDB520B58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="下發上傳" sheetId="1" r:id="rId1"/>
@@ -317,16 +317,10 @@
     <t>D1355</t>
   </si>
   <si>
-    <t>發送 100 給PLC, PLC接收後自行清除 100</t>
-  </si>
-  <si>
     <t>CCD發送200, PLC發送接收完成時清除 200</t>
   </si>
   <si>
     <t>D1357</t>
-  </si>
-  <si>
-    <t>CCD接收300  ，接收後清除300</t>
   </si>
   <si>
     <t>D1359</t>
@@ -831,6 +825,14 @@
     <t>FIELD_RESULT_A</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>CCD接收300  ，接收後清除300</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>發送 100 給PLC, PLC接收後自行清除 100</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1189,17 +1191,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1214,6 +1205,17 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,8 +1437,8 @@
   </sheetPr>
   <dimension ref="A1:AA1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
@@ -1446,7 +1448,7 @@
     <col min="4" max="4" width="51.140625" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="65.5703125" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
     <col min="10" max="27" width="9.5703125" customWidth="1"/>
@@ -1461,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>2</v>
@@ -1497,17 +1499,17 @@
       <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>7</v>
@@ -1540,12 +1542,12 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>10</v>
@@ -1579,12 +1581,12 @@
       <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1618,12 +1620,12 @@
       <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="22"/>
+      <c r="B5" s="27"/>
       <c r="C5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
@@ -1657,12 +1659,12 @@
       <c r="A6" s="6">
         <v>5</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>16</v>
@@ -1696,12 +1698,12 @@
       <c r="A7" s="6">
         <v>6</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>19</v>
@@ -1735,12 +1737,12 @@
       <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>21</v>
@@ -1774,12 +1776,12 @@
       <c r="A9" s="6">
         <v>8</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="27"/>
       <c r="C9" s="7" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>23</v>
@@ -1813,12 +1815,12 @@
       <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="27"/>
       <c r="C10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>25</v>
@@ -1852,12 +1854,12 @@
       <c r="A11" s="6">
         <v>10</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="27"/>
       <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>27</v>
@@ -1891,12 +1893,12 @@
       <c r="A12" s="6">
         <v>14</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="27"/>
       <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>29</v>
@@ -1930,12 +1932,12 @@
       <c r="A13" s="6">
         <v>15</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>30</v>
@@ -1969,15 +1971,15 @@
       <c r="A14" s="6">
         <v>16</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
@@ -2008,12 +2010,12 @@
       <c r="A15" s="6">
         <v>17</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>33</v>
@@ -2047,12 +2049,12 @@
       <c r="A16" s="6">
         <v>18</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="27"/>
       <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>35</v>
@@ -2086,12 +2088,12 @@
       <c r="A17" s="6">
         <v>19</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="27"/>
       <c r="C17" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>37</v>
@@ -2125,12 +2127,12 @@
       <c r="A18" s="6">
         <v>20</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="27"/>
       <c r="C18" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>39</v>
@@ -2164,12 +2166,12 @@
       <c r="A19" s="6">
         <v>21</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="27"/>
       <c r="C19" s="7" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>41</v>
@@ -2203,12 +2205,12 @@
       <c r="A20" s="6">
         <v>22</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="27"/>
       <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>43</v>
@@ -2242,12 +2244,12 @@
       <c r="A21" s="6">
         <v>23</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="27"/>
       <c r="C21" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>45</v>
@@ -2281,12 +2283,12 @@
       <c r="A22" s="6">
         <v>24</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>47</v>
@@ -2320,12 +2322,12 @@
       <c r="A23" s="6">
         <v>25</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="27"/>
       <c r="C23" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -2359,12 +2361,12 @@
       <c r="A24" s="6">
         <v>26</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="27"/>
       <c r="C24" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>51</v>
@@ -2398,12 +2400,12 @@
       <c r="A25" s="6">
         <v>27</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>53</v>
@@ -2437,12 +2439,12 @@
       <c r="A26" s="6">
         <v>28</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>55</v>
@@ -2476,12 +2478,12 @@
       <c r="A27" s="6">
         <v>29</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>57</v>
@@ -2515,12 +2517,12 @@
       <c r="A28" s="6">
         <v>30</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="27"/>
       <c r="C28" s="7" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>59</v>
@@ -2554,12 +2556,12 @@
       <c r="A29" s="6">
         <v>31</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="27"/>
       <c r="C29" s="7" t="s">
         <v>60</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>61</v>
@@ -2593,12 +2595,12 @@
       <c r="A30" s="6">
         <v>32</v>
       </c>
-      <c r="B30" s="23"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>63</v>
@@ -2632,14 +2634,14 @@
       <c r="A31" s="6">
         <v>34</v>
       </c>
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="29" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>151</v>
+      <c r="D31" s="21" t="s">
+        <v>149</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>66</v>
@@ -2675,12 +2677,12 @@
       <c r="A32" s="6">
         <v>35</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="27"/>
       <c r="C32" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>69</v>
@@ -2718,12 +2720,12 @@
       <c r="A33" s="6">
         <v>36</v>
       </c>
-      <c r="B33" s="22"/>
+      <c r="B33" s="27"/>
       <c r="C33" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>72</v>
@@ -2757,12 +2759,12 @@
       <c r="A34" s="6">
         <v>37</v>
       </c>
-      <c r="B34" s="22"/>
+      <c r="B34" s="27"/>
       <c r="C34" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>74</v>
@@ -2796,12 +2798,12 @@
       <c r="A35" s="6">
         <v>38</v>
       </c>
-      <c r="B35" s="22"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>76</v>
@@ -2835,12 +2837,12 @@
       <c r="A36" s="6">
         <v>39</v>
       </c>
-      <c r="B36" s="22"/>
+      <c r="B36" s="27"/>
       <c r="C36" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>78</v>
@@ -2874,12 +2876,12 @@
       <c r="A37" s="6">
         <v>40</v>
       </c>
-      <c r="B37" s="22"/>
+      <c r="B37" s="27"/>
       <c r="C37" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>79</v>
@@ -2913,12 +2915,12 @@
       <c r="A38" s="6">
         <v>41</v>
       </c>
-      <c r="B38" s="22"/>
+      <c r="B38" s="27"/>
       <c r="C38" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>80</v>
@@ -2952,12 +2954,12 @@
       <c r="A39" s="6">
         <v>42</v>
       </c>
-      <c r="B39" s="22"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>81</v>
@@ -2991,12 +2993,12 @@
       <c r="A40" s="6">
         <v>43</v>
       </c>
-      <c r="B40" s="22"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>82</v>
@@ -3030,12 +3032,12 @@
       <c r="A41" s="6">
         <v>44</v>
       </c>
-      <c r="B41" s="22"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>83</v>
@@ -3069,12 +3071,12 @@
       <c r="A42" s="6">
         <v>45</v>
       </c>
-      <c r="B42" s="22"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>84</v>
@@ -3108,12 +3110,12 @@
       <c r="A43" s="6">
         <v>46</v>
       </c>
-      <c r="B43" s="22"/>
+      <c r="B43" s="27"/>
       <c r="C43" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>85</v>
@@ -3147,12 +3149,12 @@
       <c r="A44" s="6">
         <v>48</v>
       </c>
-      <c r="B44" s="22"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E44" s="14" t="s">
         <v>87</v>
@@ -3186,12 +3188,12 @@
       <c r="A45" s="6">
         <v>50</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="28" t="s">
-        <v>186</v>
+      <c r="B45" s="27"/>
+      <c r="C45" s="23" t="s">
+        <v>184</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>88</v>
@@ -3225,12 +3227,12 @@
       <c r="A46" s="6">
         <v>51</v>
       </c>
-      <c r="B46" s="22"/>
-      <c r="C46" s="28" t="s">
-        <v>187</v>
+      <c r="B46" s="27"/>
+      <c r="C46" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>89</v>
@@ -3264,12 +3266,12 @@
       <c r="A47" s="6">
         <v>52</v>
       </c>
-      <c r="B47" s="22"/>
-      <c r="C47" s="29" t="s">
-        <v>188</v>
+      <c r="B47" s="27"/>
+      <c r="C47" s="24" t="s">
+        <v>186</v>
       </c>
       <c r="D47" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>90</v>
@@ -3303,12 +3305,12 @@
       <c r="A48" s="6">
         <v>53</v>
       </c>
-      <c r="B48" s="22"/>
+      <c r="B48" s="27"/>
       <c r="C48" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="27" t="s">
-        <v>179</v>
+        <v>194</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>91</v>
@@ -3317,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>92</v>
+        <v>205</v>
       </c>
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
@@ -3344,21 +3346,21 @@
       <c r="A49" s="6">
         <v>54</v>
       </c>
-      <c r="B49" s="22"/>
+      <c r="B49" s="27"/>
       <c r="C49" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="D49" s="26" t="s">
-        <v>171</v>
+        <v>195</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="E49" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F49" s="11" t="s">
         <v>12</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
@@ -3385,21 +3387,21 @@
       <c r="A50" s="6">
         <v>55</v>
       </c>
-      <c r="B50" s="22"/>
+      <c r="B50" s="27"/>
       <c r="C50" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>172</v>
+        <v>196</v>
+      </c>
+      <c r="D50" s="22" t="s">
+        <v>170</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
@@ -3426,25 +3428,25 @@
       <c r="A51" s="6">
         <v>57</v>
       </c>
-      <c r="B51" s="22"/>
+      <c r="B51" s="27"/>
       <c r="C51" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="I51" s="30" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="I51" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
@@ -3469,25 +3471,25 @@
       <c r="A52" s="6">
         <v>58</v>
       </c>
-      <c r="B52" s="22"/>
+      <c r="B52" s="27"/>
       <c r="C52" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I52" s="30" t="s">
-        <v>205</v>
+        <v>199</v>
+      </c>
+      <c r="I52" s="25" t="s">
+        <v>203</v>
       </c>
       <c r="J52" s="5"/>
       <c r="K52" s="5"/>
@@ -3512,15 +3514,15 @@
       <c r="A53" s="6">
         <v>60</v>
       </c>
-      <c r="B53" s="22"/>
+      <c r="B53" s="27"/>
       <c r="C53" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>17</v>
@@ -3551,21 +3553,21 @@
       <c r="A54" s="6">
         <v>62</v>
       </c>
-      <c r="B54" s="22"/>
+      <c r="B54" s="27"/>
       <c r="C54" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H54" s="5"/>
       <c r="I54" s="5"/>
@@ -3592,18 +3594,18 @@
       <c r="A55" s="6">
         <v>63</v>
       </c>
-      <c r="B55" s="22"/>
+      <c r="B55" s="27"/>
       <c r="C55" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E55" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="F55" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="E55" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>106</v>
       </c>
       <c r="G55" s="17"/>
       <c r="H55" s="5"/>
@@ -3631,18 +3633,18 @@
       <c r="A56" s="6">
         <v>64</v>
       </c>
-      <c r="B56" s="22"/>
+      <c r="B56" s="27"/>
       <c r="C56" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F56" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" s="19"/>
       <c r="H56" s="5"/>
@@ -3670,21 +3672,21 @@
       <c r="A57" s="6">
         <v>65</v>
       </c>
-      <c r="B57" s="22"/>
+      <c r="B57" s="27"/>
       <c r="C57" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57" s="7" t="s">
+      <c r="G57" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H57" s="5"/>
       <c r="I57" s="5"/>
@@ -3711,21 +3713,21 @@
       <c r="A58" s="6">
         <v>66</v>
       </c>
-      <c r="B58" s="23"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -3752,24 +3754,24 @@
       <c r="A59" s="6">
         <v>67</v>
       </c>
-      <c r="B59" s="25" t="s">
-        <v>115</v>
+      <c r="B59" s="30" t="s">
+        <v>113</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I59" s="5"/>
       <c r="J59" s="5"/>
@@ -3795,15 +3797,15 @@
       <c r="A60" s="6">
         <v>68</v>
       </c>
-      <c r="B60" s="22"/>
+      <c r="B60" s="27"/>
       <c r="C60" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>7</v>
@@ -3834,15 +3836,15 @@
       <c r="A61" s="6">
         <v>69</v>
       </c>
-      <c r="B61" s="23"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>7</v>
